--- a/colored_zone.xlsx
+++ b/colored_zone.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="22980" windowHeight="9528"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="22980" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -388,10 +388,10 @@
   <dimension ref="C1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D1" s="6">
@@ -619,7 +619,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -631,7 +631,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
